--- a/data/teacher/Humberto.xlsx
+++ b/data/teacher/Humberto.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['MEC-3B-Coman. Pneumáticos', -, 'MEC-3B-Coman. Pneumáticos', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['MCT-3A-Eletropneumática', 'MCT-3A-Eletropneumática', 'MCT-3A-Eletropneumática', 'MCT-3A-Eletropneumática']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MCT-3A-Eletropneumática', -, -, -]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Coman. Pneumáticos', 'MEC-3B-Coman. Pneumáticos']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-C.pneumática', -]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-C.pneumática', -]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-C.pneumática', -]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['MEC-3A-Coman. Pneumáticos', 'MEC-3A-Coman. Pneumáticos', 'MEC-3A-Coman. Pneumáticos', 'MEC-3A-Coman. Pneumáticos']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-C.pneumática', -]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MEC-1NB-M.T.F.</t>
+          <t>['MEC-1NB-Desenho tecnico mecanico', 'MEC-1NB-Desenho tecnico mecanico']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1027,12 +1027,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MEC-1NB-M.T.F.</t>
+          <t>['MEC-1NA-Desenho tecnico mecanico – T1', 'MEC-1NB-Desenho tecnico mecanico']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['MEC-1NA-Desenho tecnico mecanico – T1', 'MEC-1NA-Desenho tecnico mecanico – T1', 'MEC-1NA-Desenho tecnico mecanico – T1', 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['MEC-1NB-Desenho tecnico mecanico', 'MEC-1NB-Desenho tecnico mecanico', 'MEC-1NB-Desenho tecnico mecanico', 'MEC-1NB-Desenho tecnico mecanico']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1059,12 +1059,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1NB-M.T.F.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-1NA-Desenho tecnico mecanico – T1', -]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1091,12 +1091,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1NB-M.T.F.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-1NA-Desenho tecnico mecanico – T1', 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">

--- a/data/teacher/Humberto.xlsx
+++ b/data/teacher/Humberto.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MCT-3A-Eletropneumática', -, -, -]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MCT-3A-Eletropneumática', -, -, -]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MCT-3A-Eletropneumática', -, -, -]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MCT-3A-Eletropneumática', -, -, -]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['MCT-3A-Eletropneumática', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-C.pneumática', -, -, -]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-C.pneumática', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-C.pneumática', -, -, -]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-C.pneumática', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-C.pneumática', -, -, -]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-C.pneumática', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-C.pneumática', -, -, -]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-C.pneumática', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['MEC-1NA-Desenho tecnico mecanico – T1', 'MEC-1NB-Desenho tecnico mecanico']</t>
+          <t>[-, 'MEC-1NB-Desenho tecnico mecanico']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-1NA-Desenho tecnico mecanico – T1', 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['MEC-1NA-Desenho tecnico mecanico – T1', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-1NA-Desenho tecnico mecanico – T1', 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['MEC-1NA-Desenho tecnico mecanico – T1', 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">

--- a/data/teacher/Humberto.xlsx
+++ b/data/teacher/Humberto.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['MCT-3A-Eletropneumática', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['MCT-3A-Eletropneumática', -, -, -]</t>
+          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['MCT-3A-Eletropneumática', -, -, -]</t>
+          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['MCT-3A-Eletropneumática', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MCT-3A-Eletropneumática']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-C.pneumática', -, -, -]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['MEC-3A-C.pneumática', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['MEC-3A-C.pneumática', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['MEC-3A-C.pneumática', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3A-C.pneumática', -, -]</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['MEC-3A-C.pneumática', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3A-C.pneumática', -, -]</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3A-C.pneumática', -, -]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-1NA-Desenho tecnico mecanico – T1', -]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['MEC-1NB-Desenho tecnico mecanico', 'MEC-1NB-Desenho tecnico mecanico']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1017,22 +1017,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-1NA-Desenho tecnico mecanico – T1', -]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1NB-M.T.F.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>['MEC-1NA-Desenho tecnico mecanico – T1', -]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>[-, 'MEC-1NB-Desenho tecnico mecanico']</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1049,22 +1049,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['MEC-1NA-Desenho tecnico mecanico – T1', 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1NB-M.T.F.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MEC-1NB-M.T.F.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-1NB-Desenho tecnico mecanico']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['MEC-1NA-Desenho tecnico mecanico – T1', 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
+          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1091,12 +1091,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MEC-1NB-M.T.F.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-1NB-Desenho tecnico mecanico']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1106,6 +1106,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/teacher/Humberto.xlsx
+++ b/data/teacher/Humberto.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MCT-3A-Eletropneumática']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['MEC-3A-C.pneumática', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-C.pneumática', -]</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-C.pneumática', -]</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3A-C.pneumática', -, -]</t>
+          <t>[-, -, 'MEC-3A-C.pneumática', -]</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3A-C.pneumática', -, -]</t>
+          <t>[-, -, 'MEC-3A-C.pneumática', -]</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3A-C.pneumática', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -985,17 +985,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>['MEC-1NB-Desenho tecnico mecanico', -]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>['MEC-1NA-Desenho tecnico mecanico – T1', -]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1017,22 +1017,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>['MEC-1NB-Desenho tecnico mecanico', -]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>['MEC-1NA-Desenho tecnico mecanico – T1', -]</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>MEC-1NB-M.T.F.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>['MEC-1NA-Desenho tecnico mecanico – T1', -]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>[-, 'MEC-1NB-Desenho tecnico mecanico']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1049,22 +1049,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-1NB-Desenho tecnico mecanico', -]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['MEC-1NA-Desenho tecnico mecanico – T1', -]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>MEC-1NB-M.T.F.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>[-, 'MEC-1NB-Desenho tecnico mecanico']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1091,12 +1091,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-1NA-Desenho tecnico mecanico – T1', -]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NB-Desenho tecnico mecanico']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">

--- a/data/teacher/Humberto.xlsx
+++ b/data/teacher/Humberto.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MCT-3A-Eletropneumática', -, -, -]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MCT-3A-Eletropneumática', -, -, -]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MCT-3A-Eletropneumática', -, -, -]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MCT-3A-Eletropneumática', -, -, -]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-C.pneumática', -]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-C.pneumática', -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-C.pneumática', -]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-C.pneumática', -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3A-C.pneumática']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-C.pneumática', -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3A-C.pneumática']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-C.pneumática', -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -985,22 +985,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['MEC-1NB-Desenho tecnico mecanico', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['MEC-1NA-Desenho tecnico mecanico – T1', -]</t>
+          <t>[-, 'MEC-1NB-Desenho tecnico mecanico']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1NB-M.T.F.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1017,22 +1017,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['MEC-1NB-Desenho tecnico mecanico', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['MEC-1NA-Desenho tecnico mecanico – T1', -]</t>
+          <t>[-, 'MEC-1NB-Desenho tecnico mecanico']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MEC-1NB-M.T.F.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1049,22 +1049,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['MEC-1NB-Desenho tecnico mecanico', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['MEC-1NA-Desenho tecnico mecanico – T1', -]</t>
+          <t>[-, 'MEC-1NB-Desenho tecnico mecanico']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MEC-1NB-M.T.F.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['MEC-1NA-Desenho tecnico mecanico – T1', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1NB-M.T.F.</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Humberto.xlsx
+++ b/data/teacher/Humberto.xlsx
@@ -505,17 +505,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>['MCT-3A-Eletropneumática', -, -, -]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -537,17 +537,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>['MCT-3A-Eletropneumática', -, -, -]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -601,17 +601,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>['MCT-3A-Eletropneumática', -, -, -]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -633,17 +633,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>['MCT-3A-Eletropneumática', -, -, -]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-C.pneumática', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3A-C.pneumática']</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-C.pneumática', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3A-C.pneumática']</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>[-, -, -, 'MEC-3A-C.pneumática']</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -899,17 +899,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>[-, -, -, 'MEC-3A-C.pneumática']</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
+          <t>[-, 'MEC-1NB-Desenho tecnico mecanico']</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NB-Desenho tecnico mecanico']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>MEC-1NB-M.T.F.</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -1017,17 +1017,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
+          <t>[-, 'MEC-1NB-Desenho tecnico mecanico']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NB-Desenho tecnico mecanico']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1NB-M.T.F.</t>
         </is>
       </c>
     </row>
@@ -1049,17 +1049,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
+          <t>[-, 'MEC-1NB-Desenho tecnico mecanico']</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NB-Desenho tecnico mecanico']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1081,12 +1081,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MEC-1NB-M.T.F.</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Humberto.xlsx
+++ b/data/teacher/Humberto.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['MCT-3A-Eletropneumática', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['MCT-3A-Eletropneumática', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MCT-3A-Eletropneumática', -]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['MCT-3A-Eletropneumática', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MCT-3A-Eletropneumática', -]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -643,12 +643,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['MCT-3A-Eletropneumática', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MCT-3A-Eletropneumática', -]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MCT-3A-Eletropneumática', -]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3A-C.pneumática']</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3A-C.pneumática']</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3A-C.pneumática']</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3A-C.pneumática']</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NB-Desenho tecnico mecanico']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MEC-1NB-M.T.F.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NB-Desenho tecnico mecanico']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MEC-1NB-M.T.F.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1049,12 +1049,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NB-Desenho tecnico mecanico']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">

--- a/data/teacher/Humberto.xlsx
+++ b/data/teacher/Humberto.xlsx
@@ -547,12 +547,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-, -, 'MCT-3A-Eletropneumática', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-, -, 'MCT-3A-Eletropneumática', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -643,12 +643,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-, -, 'MCT-3A-Eletropneumática', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -675,12 +675,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-, -, 'MCT-3A-Eletropneumática', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">

--- a/data/teacher/Humberto.xlsx
+++ b/data/teacher/Humberto.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MCT-3A-Eletropneumática']</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MCT-3A-Eletropneumática']</t>
         </is>
       </c>
     </row>
@@ -542,12 +542,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3A-C.pneumática', -, -]</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3A-C.pneumática', -, -]</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3A-C.pneumática', -, -]</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-C.pneumática', -]</t>
         </is>
       </c>
     </row>
@@ -990,22 +990,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1NB-M.T.F.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-1NB-Desenho tecnico mecanico_T2']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1NB-M.T.F.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
         </is>
       </c>
     </row>
@@ -1032,12 +1032,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-1NB-Desenho tecnico mecanico_T2']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
         </is>
       </c>
     </row>
@@ -1064,12 +1064,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-1NB-Desenho tecnico mecanico_T2']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Humberto.xlsx
+++ b/data/teacher/Humberto.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MCT-3A-Eletropneumática']</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3B-Cont. Lóg. Prog. CLP', -, -]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MCT-3A-Eletropneumática']</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -542,17 +542,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-, 'MCT-3A-Eletropneumática', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MCT-3A-Eletropneumática', -]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3B-Cont. Lóg. Prog. CLP', -, -]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MCT-3A-Eletropneumática', -]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3B-Cont. Lóg. Prog. CLP']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -643,12 +643,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MCT-3A-Eletropneumática', -]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3B-Cont. Lóg. Prog. CLP']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MCT-3A-Eletropneumática', -]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3A-C.pneumática', -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -776,12 +776,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3A-Comam. Pneumáticos', -, -]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3A-C.pneumática', -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -808,12 +808,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3A-Comam. Pneumáticos', -, -]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3A-C.pneumática', -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3A-Comam. Pneumáticos', -, -]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3A-Comam. Pneumáticos', -, -]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-C.pneumática', -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -990,22 +990,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MEC-1NB-M.T.F.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NB-Desenho tecnico mecanico_T2']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MEC-1NB-M.T.F.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1NB-M.T.F.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1027,17 +1027,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-1NA-Des. Tec. Mec.']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NB-Desenho tecnico mecanico_T2']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1NB-M.T.F.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1059,17 +1059,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-1NA-Des. Tec. Mec.']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NB-Desenho tecnico mecanico_T2']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-1NA-Des. Tec. Mec.']</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NA-Desenho tecnico mecanico – T1']</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Humberto.xlsx
+++ b/data/teacher/Humberto.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MCT-3A-Eletropneumática', -]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3B-Cont. Lóg. Prog. CLP', -, -]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MCT-3A-Eletropneumática', -]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,12 +515,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3B-Cont. Lóg. Prog. CLP', -, -]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3B-Cont. Lóg. Prog. CLP', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[-, -, 'MCT-3A-Eletropneumática', -]</t>
+          <t>[-, -, -, 'MCT-3A-Eletropneumática']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3B-Cont. Lóg. Prog. CLP', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[-, -, 'MCT-3A-Eletropneumática', -]</t>
+          <t>[-, -, -, 'MCT-3A-Eletropneumática']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3B-Cont. Lóg. Prog. CLP']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -643,12 +643,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[-, -, 'MCT-3A-Eletropneumática', -]</t>
+          <t>['MEC-3B-Cont. Lóg. Prog. CLP', -, -, -]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3B-Cont. Lóg. Prog. CLP']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[-, -, 'MCT-3A-Eletropneumática', -]</t>
+          <t>['MEC-3B-Cont. Lóg. Prog. CLP', -, -, -]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3A-Comam. Pneumáticos', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3A-Comam. Pneumáticos']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3A-Comam. Pneumáticos', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3A-Comam. Pneumáticos']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3A-Comam. Pneumáticos', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3A-Comam. Pneumáticos', -, -]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3A-Comam. Pneumáticos', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3A-Comam. Pneumáticos', -, -]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MEC-1NB-M.T.F.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NA-Des. Tec. Mec.']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MEC-1NB-M.T.F.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NA-Des. Tec. Mec.']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NA-Des. Tec. Mec.']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">

--- a/data/teacher/Humberto.xlsx
+++ b/data/teacher/Humberto.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[-, -, 'MCT-3A-Eletropneumática', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3B-Cont. Lóg. Prog. CLP', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[-, -, 'MCT-3A-Eletropneumática', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3B-Cont. Lóg. Prog. CLP', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -542,17 +542,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Cont. Lóg. Prog. CLP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MCT-3A-Eletropneumática']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Eletropneumática</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Cont. Lóg. Prog. CLP</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MCT-3A-Eletropneumática']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Eletropneumática</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -638,17 +638,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Cont. Lóg. Prog. CLP</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['MEC-3B-Cont. Lóg. Prog. CLP', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Eletropneumática</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -670,17 +670,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Cont. Lóg. Prog. CLP</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['MEC-3B-Cont. Lóg. Prog. CLP', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Eletropneumática</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Comam. Pneumáticos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Comam. Pneumáticos</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3A-Comam. Pneumáticos']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -857,12 +857,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Comam. Pneumáticos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3A-Comam. Pneumáticos']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Comam. Pneumáticos</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3A-Comam. Pneumáticos', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3A-Comam. Pneumáticos', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">

--- a/data/teacher/Humberto.xlsx
+++ b/data/teacher/Humberto.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Cont. Lóg. Prog. CLP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Eletropneumática</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Cont. Lóg. Prog. CLP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Eletropneumática</t>
         </is>
       </c>
     </row>
@@ -552,12 +552,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>MCT-3A-Eletropneumática</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MCT-3A-Eletropneumática</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MEC-3B-Cont. Lóg. Prog. CLP</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MCT-3A-Eletropneumática</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -665,12 +665,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Eletropneumática</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MEC-3B-Cont. Lóg. Prog. CLP</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MCT-3A-Eletropneumática</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MEC-3A-Comam. Pneumáticos</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MEC-3A-Comam. Pneumáticos</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -857,12 +857,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>MEC-3A-Comam. Pneumáticos</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>MEC-3A-Comam. Pneumáticos</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Comam. Pneumáticos</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Comam. Pneumáticos</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">

--- a/data/teacher/Humberto.xlsx
+++ b/data/teacher/Humberto.xlsx
@@ -478,22 +478,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>MEC-3B-Cont. Lóg. Prog. CLP</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Eletropneumática</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MCT-3A-Eletropneumática</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -510,22 +510,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>MEC-3B-Cont. Lóg. Prog. CLP</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Eletropneumática</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MCT-3A-Eletropneumática</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -542,22 +542,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>MCT-3A-Eletropneumática</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>MEC-3B-Cont. Lóg. Prog. CLP</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MCT-3A-Eletropneumática</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MEC-3B-Cont. Lóg. Prog. CLP</t>
+          <t>MCT-3A-Eletropneumática</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MCT-3A-Eletropneumática</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Cont. Lóg. Prog. CLP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Comam. Pneumáticos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Comam. Pneumáticos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -862,12 +862,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>MEC-3A-Comam. Pneumáticos</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>MEC-3A-Comam. Pneumáticos</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MEC-3A-Comam. Pneumáticos</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MEC-3A-Comam. Pneumáticos</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">

--- a/data/teacher/Humberto.xlsx
+++ b/data/teacher/Humberto.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Cont. Lóg. Prog. CLP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,17 +483,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>MEC-3B-Cont. Lóg. Prog. CLP</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>MCT-3A-Eletropneumática</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Eletropneumática</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,17 +515,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>MEC-3B-Cont. Lóg. Prog. CLP</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MCT-3A-Eletropneumática</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -537,12 +537,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Eletropneumática</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MCT-3A-Eletropneumática</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MEC-3B-Cont. Lóg. Prog. CLP</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Eletropneumática</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MCT-3A-Eletropneumática</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Eletropneumática</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Cont. Lóg. Prog. CLP</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MEC-3B-Cont. Lóg. Prog. CLP</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>MEC-3A-Comam. Pneumáticos</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -766,17 +766,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>MEC-3A-Comam. Pneumáticos</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Comam. Pneumáticos</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MEC-3A-Comam. Pneumáticos</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Comam. Pneumáticos</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MEC-3A-Comam. Pneumáticos</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
